--- a/biology/Botanique/Giorgio_Jan/Giorgio_Jan.xlsx
+++ b/biology/Botanique/Giorgio_Jan/Giorgio_Jan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giorgio Jan est un zoologiste, un botaniste et un écrivain italien, né le 21 décembre 1791 à Vienne et mort le 8 mai 1866 à Milan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été assistant à l’université de Vienne, il obtient le poste de professeur de botanique à l’université de Parme ainsi que la direction du jardin botanique. Il faut signaler qu’à cette époque, le duché de Parme était passé pour la juridiction autrichienne à la suite du congrès de Vienne après la défaite de Napoléon à Waterloo.
 La première occupation de Jan est la botanique, mais il se constitue d’immenses collections d’histoire naturelle, dont de nombreux fossiles et minéraux. Avec Giuseppe De Cristoforis (1803-1837), ils publient de nombreux catalogues de spécimens, souvent offerts à la vente ou aux échanges, et où ils décrivent de nombreuses espèces nouvelles, principalement des insectes et des mollusques.
